--- a/exposal.xlsx
+++ b/exposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\FacialClassification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BodySegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825EBDFC-BB21-4CB8-8FF5-9670AA04827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58167356-76C4-41BF-A3B2-176B9F7A1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15DC496F-C087-4F3F-B04F-46A9BB961414}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{15DC496F-C087-4F3F-B04F-46A9BB961414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,16 +781,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="E2" s="2">
-        <v>12</v>
+        <f>D2/F2</f>
+        <v>50</v>
       </c>
       <c r="F2" s="3">
-        <v>3.84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -801,16 +802,17 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5">
-        <v>320</v>
-      </c>
-      <c r="E3" s="5">
-        <v>36</v>
+        <v>200</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="0">D3/F3</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="F3" s="7">
-        <v>11.52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -824,13 +826,14 @@
         <v>90</v>
       </c>
       <c r="D4" s="5">
-        <v>320</v>
-      </c>
-      <c r="E4" s="5">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="F4" s="7">
-        <v>3.84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -841,12 +844,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5">
-        <v>320</v>
-      </c>
-      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F5" s="7">
@@ -861,12 +865,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5">
-        <v>320</v>
-      </c>
-      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F6" s="7">
